--- a/biology/Botanique/Reanda/Reanda.xlsx
+++ b/biology/Botanique/Reanda/Reanda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Reanda est le nom d'un cultivar de pommier domestique.
 Nom botanique: Malus domestica Borkh reanda
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Épicarpe: jaunâtre-rouge à rouge
 Chair: ferme, juteuse, acidulée et aromatique
@@ -544,7 +558,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">1994, Institut Dresden-Pillnitz, Allemagne
 </t>
@@ -575,7 +591,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La pomme Reanda résulte du croisement Clivia × 13X44,14S.
 </t>
@@ -606,9 +624,11 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Variété diploïde[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Variété diploïde.
 Pollinisée par: Reglindis, Remo, Relinda, Rewena, James Grieve, Idared, Piros, Pilot, Pinova, Golden Delicious.
 </t>
         </is>
@@ -638,7 +658,9 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>La variété Reanda est multirésistante.
 Tavelure: résistante
@@ -671,7 +693,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>La multirésistance du cultivar aux maladies permet de réduire fortement les traitements aux fongicides.
 La multirésistance aux maladies en fait une variété de choix pour les petits jardins familiaux où les traitements ne sont pas systématiques.
